--- a/biology/Zoologie/Echinotriton_andersoni/Echinotriton_andersoni.xlsx
+++ b/biology/Zoologie/Echinotriton_andersoni/Echinotriton_andersoni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Echinotriton d'Anderson
-Echinotriton andersoni, l'echinotriton d'Anderson[1], est une espèce d'urodèles de la famille des Salamandridae[2].
+Echinotriton andersoni, l'echinotriton d'Anderson, est une espèce d'urodèles de la famille des Salamandridae.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans les îles Amami et Okinawa dans les Ryūkyū au Japon et à Taïwan sur le mont Kuanyinshan[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans les îles Amami et Okinawa dans les Ryūkyū au Japon et à Taïwan sur le mont Kuanyinshan.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Echinotriton andersoni mesure de 130 à 160 mm dont un peu moins de la moitié pour la queue. Son dos et son ventre sont noirs. Le bord inférieur de sa queue et ses pattes sont orange.
 </t>
@@ -574,7 +590,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, andersoni, lui a été donné en référence à John Anderson, naturaliste et médecin écossais.
 </t>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Boulenger, 1892 : Descriptions of new reptiles and batrachians from the Loo Choo Islands. Annals and Magazine of Natural History, sér. 6, vol. 10, p. 302-304 (texte intégral).</t>
         </is>
